--- a/reports/information/correlation_with_tp.xlsx
+++ b/reports/information/correlation_with_tp.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,89 +434,49 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>tp</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>tp</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
+      <c r="A2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>rh</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
+      <c r="A3" t="n">
         <v>0.4617420695769541</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>u10</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
+      <c r="A4" t="n">
         <v>0.4043394746848406</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>ws</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
+      <c r="A5" t="n">
         <v>0.4034155102243794</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>v10</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
+      <c r="A6" t="n">
         <v>0.2704612017704581</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>sst</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
+      <c r="A7" t="n">
         <v>0.04317356641270038</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>msl</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
+      <c r="A8" t="n">
         <v>-0.3753895635325495</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>t2m</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
+      <c r="A9" t="n">
         <v>-0.4043186519324356</v>
       </c>
     </row>

--- a/reports/information/correlation_with_tp.xlsx
+++ b/reports/information/correlation_with_tp.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A9"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,49 +434,89 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>tp</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>tp</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>rh</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
         <v>0.4617420695769541</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>u10</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
         <v>0.4043394746848406</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>ws</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
         <v>0.4034155102243794</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>v10</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
         <v>0.2704612017704581</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>sst</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
         <v>0.04317356641270038</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>msl</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
         <v>-0.3753895635325495</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>t2m</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
         <v>-0.4043186519324356</v>
       </c>
     </row>
